--- a/sprint backlog.xlsx
+++ b/sprint backlog.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="41">
   <si>
     <t>Sprint #</t>
   </si>
@@ -116,6 +116,39 @@
   </si>
   <si>
     <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>Implementacion de compras</t>
+  </si>
+  <si>
+    <t>Impementacion de proveedores</t>
+  </si>
+  <si>
+    <t>Implementacion de productos</t>
+  </si>
+  <si>
+    <t>Implementacion de ingresos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">implementacion de ventas </t>
+  </si>
+  <si>
+    <t>Generar reporte de inventario</t>
+  </si>
+  <si>
+    <t>Generar y exportar reporte de compras</t>
+  </si>
+  <si>
+    <t>Generar y exportar reporte de ventas</t>
+  </si>
+  <si>
+    <t>Generar y exportar reporte de ingresos</t>
+  </si>
+  <si>
+    <t>Modulo de compras</t>
+  </si>
+  <si>
+    <t>Modulo compras y reportes</t>
   </si>
 </sst>
 </file>
@@ -297,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -331,6 +364,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -343,14 +379,117 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="39">
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="lightUp">
@@ -827,8 +966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -847,18 +986,18 @@
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -867,12 +1006,12 @@
       <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F7" s="18"/>
+      <c r="F7" s="19"/>
     </row>
     <row r="8" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
@@ -888,10 +1027,10 @@
         <v>3</v>
       </c>
       <c r="F8" s="7"/>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="20"/>
+      <c r="H8" s="21"/>
     </row>
     <row r="9" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
@@ -1398,35 +1537,35 @@
     <mergeCell ref="G8:H8"/>
   </mergeCells>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="17" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="7" stopIfTrue="1">
       <formula>$J9="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="8" stopIfTrue="1">
       <formula>$J9="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="9" stopIfTrue="1">
       <formula>$J9="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="14" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="4" stopIfTrue="1">
       <formula>$J14="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="5" stopIfTrue="1">
       <formula>$J14="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="6" stopIfTrue="1">
       <formula>$J14="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="11" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="1" stopIfTrue="1">
       <formula>$J24="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="2" stopIfTrue="1">
       <formula>$J24="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="3" stopIfTrue="1">
       <formula>$J24="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1437,10 +1576,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H70"/>
+  <dimension ref="B2:H65"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1459,32 +1598,32 @@
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F7" s="18"/>
+      <c r="F7" s="19"/>
     </row>
     <row r="8" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
@@ -1500,17 +1639,17 @@
         <v>3</v>
       </c>
       <c r="F8" s="7"/>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="20"/>
+      <c r="H8" s="21"/>
     </row>
     <row r="9" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -1566,8 +1705,8 @@
       <c r="B14" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>25</v>
+      <c r="C14" s="26" t="s">
+        <v>31</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
@@ -1621,81 +1760,63 @@
       <c r="B19" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>9</v>
+      <c r="C19" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
-      <c r="F19" s="10">
-        <v>32</v>
-      </c>
+      <c r="F19" s="10"/>
     </row>
     <row r="20" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
-      <c r="C20" s="9" t="s">
-        <v>23</v>
-      </c>
+      <c r="C20" s="9"/>
       <c r="D20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="8" t="s">
-        <v>6</v>
-      </c>
+      <c r="F20" s="8"/>
     </row>
     <row r="21" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
-      <c r="C21" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="C21" s="9"/>
       <c r="D21" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="F21" s="8"/>
     </row>
     <row r="22" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="8"/>
-      <c r="C22" s="9" t="s">
-        <v>11</v>
-      </c>
+      <c r="C22" s="9"/>
       <c r="D22" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
-      <c r="C23" s="9" t="s">
-        <v>24</v>
-      </c>
+      <c r="C23" s="9"/>
       <c r="D23" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>26</v>
+      <c r="C24" s="27" t="s">
+        <v>33</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
@@ -1745,60 +1866,43 @@
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="10"/>
-    </row>
-    <row r="30" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="1"/>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C30" s="25"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="15"/>
@@ -1967,41 +2071,6 @@
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
       <c r="F65" s="15"/>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B69" s="15"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B70" s="15"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2010,36 +2079,36 @@
     <mergeCell ref="C4:F5"/>
   </mergeCells>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="26" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="19" stopIfTrue="1">
       <formula>$J9="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="20" stopIfTrue="1">
       <formula>$J9="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="21" stopIfTrue="1">
       <formula>$J9="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="23" priority="10" stopIfTrue="1">
-      <formula>$J14="Terminado"</formula>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="23" priority="1" stopIfTrue="1">
+      <formula>$J37="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="11" stopIfTrue="1">
-      <formula>$J14="En Progreso"</formula>
+    <cfRule type="expression" dxfId="22" priority="2" stopIfTrue="1">
+      <formula>$J37="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="12" stopIfTrue="1">
-      <formula>$J14="Eliminado"</formula>
+    <cfRule type="expression" dxfId="21" priority="3" stopIfTrue="1">
+      <formula>$J37="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="20" priority="7" stopIfTrue="1">
-      <formula>$J24="Terminado"</formula>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="expression" dxfId="20" priority="4" stopIfTrue="1">
+      <formula>$J38="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="8" stopIfTrue="1">
-      <formula>$J24="En Progreso"</formula>
+    <cfRule type="expression" dxfId="19" priority="5" stopIfTrue="1">
+      <formula>$J38="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="9" stopIfTrue="1">
-      <formula>$J24="Eliminado"</formula>
+    <cfRule type="expression" dxfId="18" priority="6" stopIfTrue="1">
+      <formula>$J38="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2051,8 +2120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H70"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2071,32 +2140,32 @@
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F7" s="18"/>
+      <c r="F7" s="19"/>
     </row>
     <row r="8" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
@@ -2112,17 +2181,17 @@
         <v>3</v>
       </c>
       <c r="F8" s="7"/>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="20"/>
+      <c r="H8" s="21"/>
     </row>
     <row r="9" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>22</v>
+      <c r="C9" s="23" t="s">
+        <v>34</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -2130,9 +2199,7 @@
     </row>
     <row r="10" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="8"/>
-      <c r="C10" s="9" t="s">
-        <v>29</v>
-      </c>
+      <c r="C10" s="9"/>
       <c r="D10" s="8" t="s">
         <v>19</v>
       </c>
@@ -2178,8 +2245,8 @@
       <c r="B14" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>25</v>
+      <c r="C14" s="22" t="s">
+        <v>35</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
@@ -2233,8 +2300,8 @@
       <c r="B19" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>9</v>
+      <c r="C19" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
@@ -2244,9 +2311,7 @@
     </row>
     <row r="20" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
-      <c r="C20" s="9" t="s">
-        <v>23</v>
-      </c>
+      <c r="C20" s="9"/>
       <c r="D20" s="8" t="s">
         <v>19</v>
       </c>
@@ -2259,9 +2324,7 @@
     </row>
     <row r="21" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
-      <c r="C21" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="C21" s="9"/>
       <c r="D21" s="8" t="s">
         <v>18</v>
       </c>
@@ -2274,9 +2337,7 @@
     </row>
     <row r="22" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="8"/>
-      <c r="C22" s="9" t="s">
-        <v>11</v>
-      </c>
+      <c r="C22" s="9"/>
       <c r="D22" s="8" t="s">
         <v>20</v>
       </c>
@@ -2289,9 +2350,7 @@
     </row>
     <row r="23" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
-      <c r="C23" s="9" t="s">
-        <v>24</v>
-      </c>
+      <c r="C23" s="9"/>
       <c r="D23" s="8" t="s">
         <v>21</v>
       </c>
@@ -2302,12 +2361,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>26</v>
+      <c r="C24" s="24" t="s">
+        <v>37</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
@@ -2361,8 +2420,8 @@
       <c r="B29" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>28</v>
+      <c r="C29" s="24" t="s">
+        <v>38</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
@@ -2622,36 +2681,36 @@
     <mergeCell ref="G8:H8"/>
   </mergeCells>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
-      <formula>$J9="Terminado"</formula>
+    <cfRule type="expression" dxfId="8" priority="4" stopIfTrue="1">
+      <formula>$J38="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
-      <formula>$J9="En Progreso"</formula>
+    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
+      <formula>$J38="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
-      <formula>$J9="Eliminado"</formula>
+    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
+      <formula>$J38="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
-      <formula>$J14="Terminado"</formula>
+    <cfRule type="expression" dxfId="5" priority="7" stopIfTrue="1">
+      <formula>$J32="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
-      <formula>$J14="En Progreso"</formula>
+    <cfRule type="expression" dxfId="4" priority="8" stopIfTrue="1">
+      <formula>$J32="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
-      <formula>$J14="Eliminado"</formula>
+    <cfRule type="expression" dxfId="3" priority="9" stopIfTrue="1">
+      <formula>$J32="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
+  <conditionalFormatting sqref="C19">
     <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
-      <formula>$J24="Terminado"</formula>
+      <formula>$J33="Terminado"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>$J24="En Progreso"</formula>
+      <formula>$J33="En Progreso"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$J24="Eliminado"</formula>
+      <formula>$J33="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sprint backlog.xlsx
+++ b/sprint backlog.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="45">
   <si>
     <t>Sprint #</t>
   </si>
@@ -149,13 +149,25 @@
   </si>
   <si>
     <t>Modulo compras y reportes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Crear modelos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Crear controladores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Crear migraciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Implementacion de planilla</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,6 +211,13 @@
     <font>
       <b/>
       <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -330,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -364,21 +383,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -397,99 +401,31 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="39">
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="27">
     <dxf>
       <fill>
         <patternFill patternType="lightUp">
@@ -966,13 +902,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="50.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
   </cols>
@@ -986,18 +922,18 @@
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -1006,14 +942,14 @@
       <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="24" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F7" s="19"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F7" s="25"/>
+    </row>
+    <row r="8" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -1026,11 +962,14 @@
       <c r="E8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="20" t="s">
+      <c r="F8" s="30">
+        <f>SUM(F9,F14,F19,F24,F29,)</f>
+        <v>72</v>
+      </c>
+      <c r="G8" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="21"/>
+      <c r="H8" s="27"/>
     </row>
     <row r="9" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
@@ -1041,12 +980,14 @@
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="10"/>
+      <c r="F9" s="10">
+        <v>40</v>
+      </c>
     </row>
     <row r="10" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="8"/>
       <c r="C10" s="9" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>19</v>
@@ -1054,29 +995,39 @@
       <c r="E10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
+      <c r="C11" s="28" t="s">
+        <v>41</v>
+      </c>
       <c r="D11" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="8"/>
+      <c r="F11" s="8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
+      <c r="C12" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="D12" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="8"/>
+      <c r="F12" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
@@ -1087,7 +1038,9 @@
       <c r="E13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="8"/>
+      <c r="F13" s="29" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
@@ -1102,7 +1055,9 @@
     </row>
     <row r="15" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
+      <c r="C15" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="D15" s="8" t="s">
         <v>19</v>
       </c>
@@ -1537,35 +1492,35 @@
     <mergeCell ref="G8:H8"/>
   </mergeCells>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="38" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="7" stopIfTrue="1">
       <formula>$J9="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="8" stopIfTrue="1">
       <formula>$J9="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="9" stopIfTrue="1">
       <formula>$J9="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="35" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="4" stopIfTrue="1">
       <formula>$J14="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="5" stopIfTrue="1">
       <formula>$J14="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="6" stopIfTrue="1">
       <formula>$J14="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="32" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="1" stopIfTrue="1">
       <formula>$J24="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="2" stopIfTrue="1">
       <formula>$J24="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="3" stopIfTrue="1">
       <formula>$J24="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1578,13 +1533,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H65"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A7" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="50.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
   </cols>
@@ -1598,18 +1553,18 @@
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -1618,12 +1573,12 @@
       <c r="C6" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="24" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F7" s="19"/>
+      <c r="F7" s="25"/>
     </row>
     <row r="8" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
@@ -1638,11 +1593,14 @@
       <c r="E8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="20" t="s">
+      <c r="F8" s="7">
+        <f>SUM(F9,F14,F19,F24,)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="21"/>
+      <c r="H8" s="27"/>
     </row>
     <row r="9" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
@@ -1705,7 +1663,7 @@
       <c r="B14" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="21" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="11"/>
@@ -1815,7 +1773,7 @@
       <c r="B24" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="22" t="s">
         <v>33</v>
       </c>
       <c r="D24" s="11"/>
@@ -1867,7 +1825,7 @@
       <c r="F28" s="1"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C30" s="25"/>
+      <c r="C30" s="20"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="15"/>
@@ -2079,35 +2037,35 @@
     <mergeCell ref="C4:F5"/>
   </mergeCells>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="29" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="19" stopIfTrue="1">
       <formula>$J9="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="20" stopIfTrue="1">
       <formula>$J9="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="21" stopIfTrue="1">
       <formula>$J9="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="23" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="1" stopIfTrue="1">
       <formula>$J37="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="2" stopIfTrue="1">
       <formula>$J37="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="3" stopIfTrue="1">
       <formula>$J37="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="20" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="4" stopIfTrue="1">
       <formula>$J38="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="5" stopIfTrue="1">
       <formula>$J38="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="6" stopIfTrue="1">
       <formula>$J38="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2121,12 +2079,12 @@
   <dimension ref="B2:H70"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:H8"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="50.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
   </cols>
@@ -2140,18 +2098,18 @@
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -2160,12 +2118,12 @@
       <c r="C6" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="24" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F7" s="19"/>
+      <c r="F7" s="25"/>
     </row>
     <row r="8" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
@@ -2180,17 +2138,20 @@
       <c r="E8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="20" t="s">
+      <c r="F8" s="7">
+        <f>SUM(F9,F14,F19,F24,F29)</f>
+        <v>32</v>
+      </c>
+      <c r="G8" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="21"/>
+      <c r="H8" s="27"/>
     </row>
     <row r="9" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="18" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="11"/>
@@ -2245,7 +2206,7 @@
       <c r="B14" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="11"/>
@@ -2300,7 +2261,7 @@
       <c r="B19" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="17" t="s">
         <v>36</v>
       </c>
       <c r="D19" s="11"/>
@@ -2365,7 +2326,7 @@
       <c r="B24" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="19" t="s">
         <v>37</v>
       </c>
       <c r="D24" s="11"/>
@@ -2420,7 +2381,7 @@
       <c r="B29" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="19" t="s">
         <v>38</v>
       </c>
       <c r="D29" s="11"/>

--- a/sprint backlog.xlsx
+++ b/sprint backlog.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="54">
   <si>
     <t>Sprint #</t>
   </si>
@@ -130,9 +130,6 @@
     <t>Implementacion de ingresos</t>
   </si>
   <si>
-    <t xml:space="preserve">implementacion de ventas </t>
-  </si>
-  <si>
     <t>Generar reporte de inventario</t>
   </si>
   <si>
@@ -148,9 +145,6 @@
     <t>Modulo de compras</t>
   </si>
   <si>
-    <t>Modulo compras y reportes</t>
-  </si>
-  <si>
     <t xml:space="preserve">   Crear modelos</t>
   </si>
   <si>
@@ -161,13 +155,46 @@
   </si>
   <si>
     <t xml:space="preserve">   Implementacion de planilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Utilizacion de PostgreSQL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Implementar modelo E-R en el sistema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementacion de ventas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Instalacion de Laravel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Asignar roles de personal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Implementacion de librerias CSS</t>
+  </si>
+  <si>
+    <t>Modulo ventas y reportes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   crear transaccion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Implementacion de planilla grafica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Implementacion de Vue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Implementacion de las migraciones</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,11 +242,47 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -349,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -380,9 +443,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -401,6 +461,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -416,11 +477,48 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -900,431 +998,556 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H70"/>
+  <dimension ref="A2:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="3" max="3" width="51.85546875" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="28"/>
+      <c r="B4" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="28"/>
+      <c r="B6" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="30" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F7" s="25"/>
-    </row>
-    <row r="8" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="31"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="28"/>
+      <c r="B8" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="30">
-        <f>SUM(F9,F14,F19,F24,F29,)</f>
-        <v>72</v>
-      </c>
-      <c r="G8" s="26" t="s">
+      <c r="F8" s="33">
+        <f>SUM(F9,F20,F25,F15,F31,)</f>
+        <v>180</v>
+      </c>
+      <c r="G8" s="27" t="s">
         <v>17</v>
       </c>
       <c r="H8" s="27"/>
     </row>
-    <row r="9" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="12" t="s">
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="28"/>
+      <c r="B9" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="10">
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="42">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="28"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="28"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="28"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="28"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="28"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="28"/>
+      <c r="B15" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="42">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="28"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="28"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="28"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="28"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="28"/>
+      <c r="B20" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="42">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="28"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="28"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="38" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="8" t="s">
+      <c r="D22" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="28"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="38"/>
+      <c r="F23" s="37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="28"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="8" t="s">
+      <c r="E24" s="38"/>
+      <c r="F24" s="37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="28"/>
+      <c r="B25" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="42">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="28"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="28"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="28"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="37" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="8"/>
-      <c r="C11" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="8" t="s">
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="28"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="28"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="28"/>
+      <c r="B31" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="42">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="28"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="28"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="8" t="s">
+      <c r="E34" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="38" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="8" t="s">
+    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="38"/>
+      <c r="C35" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="29" t="s">
+      <c r="E35" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="38" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="8"/>
-      <c r="C15" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="10">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="8"/>
-      <c r="C20" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="8"/>
-      <c r="C21" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="8"/>
-      <c r="C22" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="8"/>
-      <c r="C23" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B24" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="10"/>
-    </row>
-    <row r="25" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="3"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="3"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="3"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="10"/>
-    </row>
-    <row r="30" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
       <c r="F45" s="15"/>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
       <c r="F46" s="15"/>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
       <c r="F47" s="15"/>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
@@ -1484,6 +1707,20 @@
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
       <c r="F70" s="15"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B72" s="15"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1502,7 +1739,7 @@
       <formula>$J9="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
+  <conditionalFormatting sqref="C20">
     <cfRule type="expression" dxfId="23" priority="4" stopIfTrue="1">
       <formula>$J14="Terminado"</formula>
     </cfRule>
@@ -1513,7 +1750,7 @@
       <formula>$J14="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
+  <conditionalFormatting sqref="C15">
     <cfRule type="expression" dxfId="20" priority="1" stopIfTrue="1">
       <formula>$J24="Terminado"</formula>
     </cfRule>
@@ -1571,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" s="24" t="s">
         <v>4</v>
@@ -1663,7 +1900,7 @@
       <c r="B14" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="20" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="11"/>
@@ -1773,7 +2010,7 @@
       <c r="B24" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="21" t="s">
         <v>33</v>
       </c>
       <c r="D24" s="11"/>
@@ -1825,7 +2062,7 @@
       <c r="F28" s="1"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C30" s="20"/>
+      <c r="C30" s="19"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="15"/>
@@ -2078,8 +2315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H70"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2116,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F6" s="24" t="s">
         <v>4</v>
@@ -2140,7 +2377,7 @@
       </c>
       <c r="F8" s="7">
         <f>SUM(F9,F14,F19,F24,F29)</f>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G8" s="26" t="s">
         <v>17</v>
@@ -2151,8 +2388,8 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>34</v>
+      <c r="C9" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -2206,8 +2443,8 @@
       <c r="B14" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>35</v>
+      <c r="C14" s="16" t="s">
+        <v>34</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
@@ -2261,14 +2498,12 @@
       <c r="B19" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="17" t="s">
-        <v>36</v>
+      <c r="C19" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
-      <c r="F19" s="10">
-        <v>32</v>
-      </c>
+      <c r="F19" s="10"/>
     </row>
     <row r="20" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
@@ -2326,8 +2561,8 @@
       <c r="B24" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="19" t="s">
-        <v>37</v>
+      <c r="C24" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
@@ -2381,8 +2616,8 @@
       <c r="B29" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="19" t="s">
-        <v>38</v>
+      <c r="C29" s="18" t="s">
+        <v>37</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>

--- a/sprint backlog.xlsx
+++ b/sprint backlog.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="62">
   <si>
     <t>Sprint #</t>
   </si>
@@ -188,6 +188,30 @@
   </si>
   <si>
     <t xml:space="preserve">   Implementacion de las migraciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Creacion de formulario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   creacion de vista del formulario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   crear componentes Vue para inventario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   crear componentes Vue para compras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   crear componentes Vue para proveedores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   crear componentes Vue para ingresos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   crear componentes Vue para productos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   crear componentes Vue para ventas</t>
   </si>
 </sst>
 </file>
@@ -462,31 +486,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -519,6 +519,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1000,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,495 +1037,499 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="30" t="s">
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="39" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="31"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="40"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="32" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="25">
         <f>SUM(F9,F20,F25,F15,F31,)</f>
         <v>180</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="27"/>
+      <c r="H8" s="41"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="34" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="42">
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="34">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="38" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="37" t="s">
+      <c r="E10" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="29" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="38" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="37" t="s">
+      <c r="E11" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="29" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="45" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="37" t="s">
         <v>51</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="37" t="s">
+      <c r="E12" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="29" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="44" t="s">
+      <c r="A13" s="23"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="37" t="s">
+      <c r="E13" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="29" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="45" t="s">
+      <c r="A14" s="23"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="43" t="s">
+      <c r="E14" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="35" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="41" t="s">
+      <c r="A15" s="23"/>
+      <c r="B15" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="42">
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="34">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="38" t="s">
+      <c r="A16" s="23"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="37" t="s">
+      <c r="E16" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="29" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="38" t="s">
+      <c r="A17" s="23"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="37" t="s">
+      <c r="E17" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="29" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="38" t="s">
+      <c r="A18" s="23"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="37" t="s">
+      <c r="E18" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="29" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="38" t="s">
+      <c r="A19" s="23"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="37" t="s">
+      <c r="E19" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="29" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="34" t="s">
+      <c r="A20" s="23"/>
+      <c r="B20" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="42">
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="34">
         <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="38" t="s">
+      <c r="A21" s="23"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="37" t="s">
+      <c r="E21" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="38" t="s">
+      <c r="A22" s="23"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="37" t="s">
+      <c r="E22" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="38" t="s">
+      <c r="A23" s="23"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="38"/>
-      <c r="F23" s="37" t="s">
+      <c r="E23" s="30"/>
+      <c r="F23" s="29" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="37" t="s">
+      <c r="A24" s="23"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="38"/>
-      <c r="F24" s="37" t="s">
+      <c r="E24" s="30"/>
+      <c r="F24" s="29" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
-      <c r="B25" s="34" t="s">
+      <c r="A25" s="23"/>
+      <c r="B25" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="42">
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="34">
         <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="38" t="s">
+      <c r="A26" s="23"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="37" t="s">
+      <c r="E26" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="29" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="38" t="s">
+      <c r="A27" s="23"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="37" t="s">
+      <c r="D27" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="37" t="s">
+      <c r="E27" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="38" t="s">
+      <c r="A28" s="23"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="37" t="s">
+      <c r="E28" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="29" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="38" t="s">
+      <c r="A29" s="23"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="37" t="s">
+      <c r="D29" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="37" t="s">
+      <c r="E29" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="29" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="44" t="s">
+      <c r="A30" s="23"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="37" t="s">
+      <c r="D30" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="43" t="s">
+      <c r="E30" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="35" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
-      <c r="B31" s="39" t="s">
+      <c r="A31" s="23"/>
+      <c r="B31" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="42">
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="34">
         <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="37" t="s">
+      <c r="A32" s="23"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="38" t="s">
+      <c r="E32" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="30" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="37" t="s">
+      <c r="A33" s="23"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="38" t="s">
+      <c r="E33" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="37" t="s">
+      <c r="B34" s="30"/>
+      <c r="C34" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E34" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="38" t="s">
+      <c r="E34" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="38"/>
-      <c r="C35" s="38" t="s">
+      <c r="B35" s="30"/>
+      <c r="C35" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="D35" s="37" t="s">
+      <c r="D35" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E35" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="38" t="s">
+      <c r="E35" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="30" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1770,13 +1798,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H65"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A4" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="3" max="3" width="43" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
   </cols>
@@ -1790,18 +1818,18 @@
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -1810,12 +1838,12 @@
       <c r="C6" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="42" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F7" s="25"/>
+      <c r="F7" s="43"/>
     </row>
     <row r="8" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
@@ -1832,12 +1860,12 @@
       </c>
       <c r="F8" s="7">
         <f>SUM(F9,F14,F19,F24,)</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="G8" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="27"/>
+      <c r="H8" s="41"/>
     </row>
     <row r="9" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
@@ -1848,53 +1876,69 @@
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="10"/>
+      <c r="F9" s="10">
+        <v>56</v>
+      </c>
     </row>
     <row r="10" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="8"/>
-      <c r="C10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="8" t="s">
+      <c r="C10" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="8"/>
+      <c r="E10" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="8" t="s">
+      <c r="C11" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="8"/>
+      <c r="E11" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="8" t="s">
+      <c r="C12" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="8"/>
+      <c r="E12" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="8" t="s">
+      <c r="C13" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="8"/>
+      <c r="E13" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
@@ -1905,51 +1949,69 @@
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
-      <c r="F14" s="10"/>
+      <c r="F14" s="10">
+        <v>56</v>
+      </c>
     </row>
     <row r="15" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
+      <c r="C15" s="30" t="s">
+        <v>54</v>
+      </c>
       <c r="D15" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="9"/>
+      <c r="F15" s="30" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
+      <c r="C16" s="30" t="s">
+        <v>55</v>
+      </c>
       <c r="D16" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="30" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="17" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
+      <c r="C17" s="30" t="s">
+        <v>58</v>
+      </c>
       <c r="D17" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="9"/>
+      <c r="F17" s="30" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="18" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
+      <c r="C18" s="30" t="s">
+        <v>50</v>
+      </c>
       <c r="D18" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="9"/>
+      <c r="F18" s="30" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="19" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
@@ -1960,51 +2022,69 @@
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
-      <c r="F19" s="10"/>
+      <c r="F19" s="10">
+        <v>56</v>
+      </c>
     </row>
     <row r="20" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
+      <c r="C20" s="30" t="s">
+        <v>54</v>
+      </c>
       <c r="D20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="8"/>
+      <c r="F20" s="30" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="21" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
+      <c r="C21" s="30" t="s">
+        <v>55</v>
+      </c>
       <c r="D21" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="8"/>
+      <c r="F21" s="30" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="22" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
+      <c r="C22" s="30" t="s">
+        <v>60</v>
+      </c>
       <c r="D22" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="8"/>
+      <c r="F22" s="30" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="23" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
+      <c r="C23" s="30" t="s">
+        <v>50</v>
+      </c>
       <c r="D23" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="8"/>
+      <c r="F23" s="30" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="24" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
@@ -2015,51 +2095,69 @@
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
-      <c r="F24" s="10"/>
+      <c r="F24" s="10">
+        <v>56</v>
+      </c>
     </row>
     <row r="25" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
-      <c r="C25" s="1"/>
+      <c r="C25" s="30" t="s">
+        <v>54</v>
+      </c>
       <c r="D25" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="1"/>
+      <c r="F25" s="30" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="26" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
-      <c r="C26" s="1"/>
+      <c r="C26" s="30" t="s">
+        <v>55</v>
+      </c>
       <c r="D26" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="1"/>
+      <c r="F26" s="30" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="27" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
-      <c r="C27" s="1"/>
+      <c r="C27" s="30" t="s">
+        <v>59</v>
+      </c>
       <c r="D27" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="1"/>
+      <c r="F27" s="30" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="28" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
-      <c r="C28" s="1"/>
+      <c r="C28" s="30" t="s">
+        <v>50</v>
+      </c>
       <c r="D28" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="1"/>
+      <c r="F28" s="30" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C30" s="19"/>
@@ -2316,7 +2414,7 @@
   <dimension ref="B2:H70"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2335,18 +2433,18 @@
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -2355,12 +2453,12 @@
       <c r="C6" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="42" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F7" s="25"/>
+      <c r="F7" s="43"/>
     </row>
     <row r="8" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
@@ -2377,12 +2475,12 @@
       </c>
       <c r="F8" s="7">
         <f>SUM(F9,F14,F19,F24,F29)</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="27"/>
+      <c r="H8" s="41"/>
     </row>
     <row r="9" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
@@ -2393,51 +2491,69 @@
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="10"/>
+      <c r="F9" s="10">
+        <v>56</v>
+      </c>
     </row>
     <row r="10" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="8" t="s">
+      <c r="C10" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="8"/>
+      <c r="E10" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="8" t="s">
+      <c r="C11" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="8"/>
+      <c r="E11" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="8" t="s">
+      <c r="C12" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="8"/>
+      <c r="E12" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="8" t="s">
+      <c r="C13" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="8"/>
+      <c r="E13" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
